--- a/Assignment Model/output/results_2.xlsx
+++ b/Assignment Model/output/results_2.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Bologna/Data-driven model for Bologna/Assignment Model/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_AA65BDDF8655AE176C08EDB2492069B3A58563D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74881524-550D-49B2-960B-3E1515C04000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3690" yWindow="2610" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance and Emissions" sheetId="1" r:id="rId1"/>
     <sheet name="Assignments to Lockers" sheetId="2" r:id="rId2"/>
     <sheet name="Package Arrival Times" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
   <si>
     <t>Last Miler 0</t>
   </si>
@@ -39,12 +58,12 @@
     <t>Total CO2 emissions (gCO2eq)</t>
   </si>
   <si>
+    <t>Package ID</t>
+  </si>
+  <si>
     <t>Locker node</t>
   </si>
   <si>
-    <t>Package ID</t>
-  </si>
-  <si>
     <t>Destination node</t>
   </si>
   <si>
@@ -54,290 +73,344 @@
     <t>Carried by Last Miler</t>
   </si>
   <si>
-    <t>20:53</t>
-  </si>
-  <si>
-    <t>19:26</t>
-  </si>
-  <si>
-    <t>10:49</t>
-  </si>
-  <si>
-    <t>14:51</t>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>12:51</t>
+  </si>
+  <si>
+    <t>16:42</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>19:13</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>13:06</t>
+  </si>
+  <si>
+    <t>13:57</t>
+  </si>
+  <si>
+    <t>13:26</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>18:08</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>15:28</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>14:43</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>14:34</t>
+  </si>
+  <si>
+    <t>12:57</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>12:54</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>21:12</t>
+  </si>
+  <si>
+    <t>09:58</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>09:36</t>
+  </si>
+  <si>
+    <t>16:11</t>
+  </si>
+  <si>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>21:21</t>
+  </si>
+  <si>
+    <t>13:29</t>
+  </si>
+  <si>
+    <t>14:03</t>
+  </si>
+  <si>
+    <t>19:07</t>
+  </si>
+  <si>
+    <t>15:33</t>
+  </si>
+  <si>
+    <t>10:39</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>09:01</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>16:54</t>
+  </si>
+  <si>
+    <t>13:18</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>15:14</t>
+  </si>
+  <si>
+    <t>11:08</t>
+  </si>
+  <si>
+    <t>13:14</t>
+  </si>
+  <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>17:03</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>14:47</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>13:42</t>
+  </si>
+  <si>
+    <t>18:49</t>
+  </si>
+  <si>
+    <t>12:44</t>
+  </si>
+  <si>
+    <t>18:37</t>
+  </si>
+  <si>
+    <t>13:12</t>
+  </si>
+  <si>
+    <t>09:45</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>13:44</t>
+  </si>
+  <si>
+    <t>18:22</t>
+  </si>
+  <si>
+    <t>15:19</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>20:31</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>10:12</t>
+  </si>
+  <si>
+    <t>11:49</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>13:13</t>
+  </si>
+  <si>
+    <t>18:57</t>
+  </si>
+  <si>
+    <t>17:06</t>
+  </si>
+  <si>
+    <t>10:06</t>
+  </si>
+  <si>
+    <t>15:43</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>14:07</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>13:28</t>
+  </si>
+  <si>
+    <t>11:42</t>
   </si>
   <si>
     <t>16:16</t>
   </si>
   <si>
-    <t>10:07</t>
-  </si>
-  <si>
-    <t>15:58</t>
-  </si>
-  <si>
-    <t>19:10</t>
-  </si>
-  <si>
-    <t>17:03</t>
-  </si>
-  <si>
-    <t>21:28</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>13:58</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:40</t>
-  </si>
-  <si>
-    <t>20:51</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>11:21</t>
-  </si>
-  <si>
-    <t>20:49</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>12:06</t>
-  </si>
-  <si>
-    <t>12:47</t>
-  </si>
-  <si>
-    <t>19:41</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>11:20</t>
-  </si>
-  <si>
-    <t>23:00</t>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>15:48</t>
+  </si>
+  <si>
+    <t>14:58</t>
   </si>
   <si>
     <t>11:50</t>
   </si>
   <si>
-    <t>13:02</t>
+    <t>16:37</t>
+  </si>
+  <si>
+    <t>12:38</t>
+  </si>
+  <si>
+    <t>17:37</t>
+  </si>
+  <si>
+    <t>13:24</t>
   </si>
   <si>
     <t>14:18</t>
   </si>
   <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>10:06</t>
-  </si>
-  <si>
-    <t>11:37</t>
-  </si>
-  <si>
-    <t>12:17</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>11:38</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>13:41</t>
-  </si>
-  <si>
-    <t>14:15</t>
-  </si>
-  <si>
-    <t>14:49</t>
-  </si>
-  <si>
-    <t>14:04</t>
-  </si>
-  <si>
-    <t>13:28</t>
-  </si>
-  <si>
-    <t>14:10</t>
-  </si>
-  <si>
-    <t>14:56</t>
-  </si>
-  <si>
-    <t>16:51</t>
-  </si>
-  <si>
-    <t>10:46</t>
-  </si>
-  <si>
-    <t>10:09</t>
-  </si>
-  <si>
-    <t>11:59</t>
-  </si>
-  <si>
-    <t>12:25</t>
-  </si>
-  <si>
-    <t>13:12</t>
-  </si>
-  <si>
-    <t>14:42</t>
-  </si>
-  <si>
-    <t>11:33</t>
-  </si>
-  <si>
-    <t>14:57</t>
-  </si>
-  <si>
-    <t>15:13</t>
-  </si>
-  <si>
-    <t>11:34</t>
-  </si>
-  <si>
-    <t>14:58</t>
-  </si>
-  <si>
-    <t>08:27</t>
-  </si>
-  <si>
-    <t>12:49</t>
-  </si>
-  <si>
-    <t>13:06</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>12:38</t>
-  </si>
-  <si>
-    <t>13:44</t>
-  </si>
-  <si>
-    <t>13:18</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>12:36</t>
-  </si>
-  <si>
-    <t>12:22</t>
-  </si>
-  <si>
-    <t>18:54</t>
-  </si>
-  <si>
-    <t>15:32</t>
-  </si>
-  <si>
-    <t>15:29</t>
-  </si>
-  <si>
-    <t>14:27</t>
-  </si>
-  <si>
-    <t>14:34</t>
-  </si>
-  <si>
-    <t>15:25</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>17:09</t>
-  </si>
-  <si>
-    <t>16:19</t>
-  </si>
-  <si>
-    <t>10:31</t>
-  </si>
-  <si>
-    <t>18:06</t>
-  </si>
-  <si>
-    <t>11:09</t>
-  </si>
-  <si>
-    <t>13:38</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>15:10</t>
-  </si>
-  <si>
-    <t>20:19</t>
-  </si>
-  <si>
-    <t>11:43</t>
-  </si>
-  <si>
-    <t>21:08</t>
-  </si>
-  <si>
-    <t>12:13</t>
-  </si>
-  <si>
-    <t>11:19</t>
-  </si>
-  <si>
-    <t>16:40</t>
-  </si>
-  <si>
-    <t>21:48</t>
-  </si>
-  <si>
-    <t>14:01</t>
-  </si>
-  <si>
-    <t>14:46</t>
+    <t>09:22</t>
+  </si>
+  <si>
+    <t>15:35</t>
+  </si>
+  <si>
+    <t>11:36</t>
+  </si>
+  <si>
+    <t>10:13</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>12:16</t>
+  </si>
+  <si>
+    <t>09:17</t>
+  </si>
+  <si>
+    <t>15:31</t>
+  </si>
+  <si>
+    <t>13:34</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>12:46</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>17:42</t>
+  </si>
+  <si>
+    <t>14:23</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>14:32</t>
+  </si>
+  <si>
+    <t>17:12</t>
+  </si>
+  <si>
+    <t>13:31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,10 +421,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,6 +470,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -687,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,60 +789,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>39.95739999999999</v>
+        <v>35.031570000000002</v>
       </c>
       <c r="C2">
-        <v>35.91439</v>
+        <v>37.456099999999999</v>
       </c>
       <c r="D2">
-        <v>20.92934</v>
+        <v>27.1797</v>
       </c>
       <c r="E2">
-        <v>21.45013</v>
+        <v>23.70458</v>
       </c>
       <c r="F2">
-        <v>21.96325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>34.130890000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>797.034749614717</v>
+        <v>698.77866486709422</v>
       </c>
       <c r="C3">
-        <v>716.3883746493841</v>
+        <v>747.14103733085255</v>
       </c>
       <c r="D3">
-        <v>417.4798977536399</v>
+        <v>542.15653130842179</v>
       </c>
       <c r="E3">
-        <v>427.8681544282945</v>
+        <v>472.83792201249412</v>
       </c>
       <c r="F3">
-        <v>438.1034167507255</v>
+        <v>680.81269965707111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q9:Q10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,47 +852,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -820,1054 +900,1054 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="B130">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="B131">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="B133">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B134">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B135">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="B136">
-        <v>134</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1879,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1890,10 +1970,10 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1907,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1918,10 +1998,10 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1935,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1946,10 +2026,10 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1960,10 +2040,10 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1977,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1988,10 +2068,10 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2002,10 +2082,10 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2016,10 +2096,10 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2030,10 +2110,10 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2047,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2058,10 +2138,10 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2072,10 +2152,10 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2089,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2100,10 +2180,10 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2117,7 +2197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2128,10 +2208,10 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2142,10 +2222,10 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2156,10 +2236,10 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2167,13 +2247,13 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2181,13 +2261,13 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2195,13 +2275,13 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2212,10 +2292,10 @@
         <v>34</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2226,10 +2306,10 @@
         <v>35</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2237,13 +2317,13 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2251,13 +2331,13 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2265,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2279,13 +2359,13 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2293,13 +2373,13 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2307,13 +2387,13 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2321,13 +2401,13 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2335,13 +2415,13 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2349,13 +2429,13 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2363,13 +2443,13 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2377,13 +2457,13 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2391,13 +2471,13 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2405,13 +2485,13 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2419,13 +2499,13 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2433,13 +2513,13 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2447,13 +2527,13 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2461,13 +2541,13 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2475,13 +2555,13 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2489,13 +2569,13 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2503,13 +2583,13 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2517,13 +2597,13 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2531,13 +2611,13 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2545,13 +2625,13 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2559,13 +2639,13 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2573,13 +2653,13 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2587,13 +2667,13 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2601,13 +2681,13 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2615,13 +2695,13 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2629,13 +2709,13 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2643,13 +2723,13 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2657,13 +2737,13 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2671,13 +2751,13 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2685,13 +2765,13 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2699,13 +2779,13 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2716,10 +2796,10 @@
         <v>66</v>
       </c>
       <c r="D61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2727,13 +2807,13 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2741,13 +2821,13 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D63">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2758,10 +2838,10 @@
         <v>68</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2769,13 +2849,13 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2783,13 +2863,13 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2797,13 +2877,13 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2817,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2825,13 +2905,13 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2839,13 +2919,13 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2853,13 +2933,13 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2867,13 +2947,13 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2881,13 +2961,13 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2895,13 +2975,13 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2909,13 +2989,13 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2923,13 +3003,13 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2937,13 +3017,13 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2951,13 +3031,13 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2965,13 +3045,13 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2979,13 +3059,13 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2993,13 +3073,13 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3010,10 +3090,10 @@
         <v>42</v>
       </c>
       <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3021,13 +3101,13 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3035,13 +3115,13 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3049,13 +3129,13 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3063,13 +3143,13 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3077,13 +3157,13 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3091,13 +3171,13 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3105,13 +3185,13 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3119,13 +3199,13 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3133,13 +3213,13 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3147,13 +3227,13 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3161,13 +3241,13 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3175,13 +3255,13 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3189,13 +3269,13 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3203,13 +3283,13 @@
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3217,13 +3297,13 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3231,13 +3311,13 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3245,13 +3325,13 @@
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3259,13 +3339,13 @@
         <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3273,13 +3353,13 @@
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3287,13 +3367,13 @@
         <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3301,13 +3381,13 @@
         <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3315,13 +3395,13 @@
         <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3329,13 +3409,13 @@
         <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3343,13 +3423,13 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3357,13 +3437,13 @@
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3371,13 +3451,13 @@
         <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3385,13 +3465,13 @@
         <v>118</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3399,13 +3479,13 @@
         <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3413,13 +3493,13 @@
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3427,13 +3507,13 @@
         <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3441,13 +3521,13 @@
         <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3455,13 +3535,13 @@
         <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3469,13 +3549,13 @@
         <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3483,13 +3563,13 @@
         <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3497,13 +3577,13 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3511,13 +3591,13 @@
         <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3525,13 +3605,13 @@
         <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3539,13 +3619,13 @@
         <v>129</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3553,13 +3633,13 @@
         <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3567,13 +3647,13 @@
         <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D122">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3581,13 +3661,13 @@
         <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3595,13 +3675,13 @@
         <v>133</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3609,13 +3689,13 @@
         <v>134</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3623,13 +3703,13 @@
         <v>135</v>
       </c>
       <c r="C126" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3637,13 +3717,13 @@
         <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3651,13 +3731,13 @@
         <v>137</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="D128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3665,13 +3745,13 @@
         <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3679,13 +3759,13 @@
         <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3693,13 +3773,13 @@
         <v>140</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3707,13 +3787,13 @@
         <v>141</v>
       </c>
       <c r="C132" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3721,13 +3801,13 @@
         <v>142</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3735,13 +3815,13 @@
         <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3749,13 +3829,13 @@
         <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3763,13 +3843,19 @@
         <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{9860db96-b53f-4bd7-8137-e09357cab268}" enabled="1" method="Standard" siteId="{b78d03e6-f6a2-4cff-83be-847d1a6453f9}" removed="0"/>
+</clbl:labelList>
 </file>